--- a/Benchmark-Models/Fujita_SciSignal2010/Data/model1_data3.xlsx
+++ b/Benchmark-Models/Fujita_SciSignal2010/Data/model1_data3.xlsx
@@ -430,13 +430,13 @@
         <v>60.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1144234645296179</v>
+        <v>0.11481147823745173</v>
       </c>
       <c r="C3" t="n">
-        <v>0.28425699392214165</v>
+        <v>0.28556014157311105</v>
       </c>
       <c r="D3" t="n">
-        <v>5.211243808870827E-4</v>
+        <v>5.244794602210424E-4</v>
       </c>
     </row>
     <row r="4">
@@ -444,13 +444,13 @@
         <v>120.0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.15277133191337297</v>
+        <v>0.15271961630007552</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5853547295605708</v>
+        <v>0.5871864085126391</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00710694201638992</v>
+        <v>0.007143856665414392</v>
       </c>
     </row>
     <row r="5">
@@ -458,13 +458,13 @@
         <v>300.0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07907651138125561</v>
+        <v>0.0781726541481615</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5688099514682537</v>
+        <v>0.5698013696320835</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09453202838627672</v>
+        <v>0.09491075210044386</v>
       </c>
     </row>
     <row r="6">
@@ -472,13 +472,13 @@
         <v>600.0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.019058542247155356</v>
+        <v>0.018452878730645654</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3263752663559925</v>
+        <v>0.3255370179558537</v>
       </c>
       <c r="D6" t="n">
-        <v>0.36685204100886115</v>
+        <v>0.36794473613306417</v>
       </c>
     </row>
     <row r="7">
@@ -486,13 +486,13 @@
         <v>900.0</v>
       </c>
       <c r="B7" t="n">
-        <v>0.004701118298441928</v>
+        <v>0.004416579597721429</v>
       </c>
       <c r="C7" t="n">
-        <v>0.19692689977245934</v>
+        <v>0.1962263755327296</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6350909023933312</v>
+        <v>0.6363472713662821</v>
       </c>
     </row>
     <row r="8">
@@ -500,13 +500,13 @@
         <v>1800.0</v>
       </c>
       <c r="B8" t="n">
-        <v>2.765523897858192E-4</v>
+        <v>1.8665725625515968E-4</v>
       </c>
       <c r="C8" t="n">
-        <v>0.10595349127241464</v>
+        <v>0.10636048201649377</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9989387811322302</v>
+        <v>0.9999186323693638</v>
       </c>
     </row>
     <row r="9">
@@ -514,13 +514,13 @@
         <v>3600.0</v>
       </c>
       <c r="B9" t="n">
-        <v>2.1607852778604339E-4</v>
+        <v>1.3185519182866304E-4</v>
       </c>
       <c r="C9" t="n">
-        <v>0.054739187804768295</v>
+        <v>0.054745239039653705</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7818807584278247</v>
+        <v>0.7837479740085791</v>
       </c>
     </row>
   </sheetData>
